--- a/data/trans_bre/P14B24_2016_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P14B24_2016_2023-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>4.040752571455773</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6073780959049646</v>
+        <v>0.6073780959049639</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>3.354913395320346</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.1472187856855624</v>
+        <v>0.1472187856855623</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.165821823764246</v>
+        <v>2.2880398341918</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.407575408809934</v>
+        <v>-1.603919613999959</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1.13335347204268</v>
+        <v>0.8982318865652887</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2629884804436984</v>
+        <v>-0.2987698011949488</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.277038758110955</v>
+        <v>6.375952215252348</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.580678986049022</v>
+        <v>2.32075057493124</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9.575924477846227</v>
+        <v>10.08660079381207</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.8997913416987757</v>
+        <v>0.789831916914543</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.511170649018999</v>
+        <v>1.627868566618559</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.071513290214261</v>
+        <v>2.048496378138633</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.9374695058897139</v>
+        <v>0.944521232165714</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.8573186687340466</v>
+        <v>0.8048109458595673</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.223846546471417</v>
+        <v>4.257454649278015</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.876696751423707</v>
+        <v>5.100928037453657</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>6.829706022288186</v>
+        <v>6.582766769212273</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.352453368847975</v>
+        <v>4.907591866947648</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.024491807677155</v>
+        <v>1.945611537694528</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.314193074772588</v>
+        <v>3.234395697926101</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.9650412555383072</v>
+        <v>0.9456582456579986</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.8511456520620517</v>
+        <v>0.7861022067100186</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.616489747440084</v>
+        <v>5.281337487228187</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.707168772091627</v>
+        <v>7.620979501497222</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>8.076472826210946</v>
+        <v>7.619778771902561</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>5.470460802733728</v>
+        <v>5.178534647503186</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.08286803607822</v>
+        <v>1.119336072148394</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.935346842352653</v>
+        <v>1.900779109930191</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5887185411975542</v>
+        <v>0.5751181198163604</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4686935625114014</v>
+        <v>0.4604120038079105</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.767318270687128</v>
+        <v>3.800056427777899</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.400809750318573</v>
+        <v>5.436784260567178</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6.578618744061421</v>
+        <v>6.182067589309307</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.321248581439724</v>
+        <v>2.300397151345901</v>
       </c>
     </row>
     <row r="16">
@@ -848,7 +848,7 @@
         <v>3.045104456823021</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.40942519557154</v>
+        <v>3.409425195571542</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>2.783838278419422</v>
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.251094289297745</v>
+        <v>2.325266348334469</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.48606817594593</v>
+        <v>2.507269796780548</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1.539485260789245</v>
+        <v>1.664646967741071</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.7734978879983243</v>
+        <v>0.7395693706193074</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.898424676715557</v>
+        <v>3.829428054668911</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.386690859167711</v>
+        <v>4.343407608113914</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4.377529573099556</v>
+        <v>4.460152559382689</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.904857216561038</v>
+        <v>1.918791795417332</v>
       </c>
     </row>
     <row r="19">
